--- a/excel/all 출입명단.xlsx
+++ b/excel/all 출입명단.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>체온</t>
   </si>
@@ -206,12 +206,6 @@
   </si>
   <si>
     <t>2021-07-08-15-01</t>
-  </si>
-  <si>
-    <t>김진우</t>
-  </si>
-  <si>
-    <t>2021-08-08-17-19</t>
   </si>
 </sst>
 </file>
@@ -261,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1003,70 +997,6 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
